--- a/CydeoStudent.xlsx
+++ b/CydeoStudent.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\LİBRARY CUCUMBER PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\IdeaProjects\cydeo-cucumber-junit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED983095-3032-4DC9-B56D-B7262EC23C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE19254-AC64-46EB-A2D7-B08282FF96A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CE77A506-269A-4AF2-9230-4B26DC0F2D8D}"/>
+    <workbookView xWindow="3084" yWindow="2796" windowWidth="17280" windowHeight="8964" xr2:uid="{CE77A506-269A-4AF2-9230-4B26DC0F2D8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,82 +33,86 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+  <si>
+    <t>student1@library</t>
+  </si>
+  <si>
+    <t>i2A9TgXa</t>
+  </si>
+  <si>
+    <t>student2@library</t>
+  </si>
+  <si>
+    <t>80qynl9d</t>
+  </si>
+  <si>
+    <t>student3@library</t>
+  </si>
+  <si>
+    <t>1f3ZGRGj</t>
+  </si>
+  <si>
+    <t>student4@library</t>
+  </si>
+  <si>
+    <t>1AHF6MHk</t>
+  </si>
+  <si>
+    <t>student5@library</t>
+  </si>
+  <si>
+    <t>uElqihO2</t>
+  </si>
+  <si>
+    <t>student6@library</t>
+  </si>
+  <si>
+    <t>P2OEdBiW</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>teststudent</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
   <si>
     <t>Test Student 1</t>
   </si>
   <si>
-    <t>student1@library</t>
-  </si>
-  <si>
-    <t>i2A9TgXa</t>
-  </si>
-  <si>
     <t>Test Student 2</t>
   </si>
   <si>
-    <t>student2@library</t>
-  </si>
-  <si>
-    <t>80qynl9d</t>
-  </si>
-  <si>
     <t>Test Student 3</t>
   </si>
   <si>
-    <t>student3@library</t>
-  </si>
-  <si>
-    <t>1f3ZGRGj</t>
-  </si>
-  <si>
     <t>Test Student 4</t>
   </si>
   <si>
-    <t>student4@library</t>
-  </si>
-  <si>
-    <t>1AHF6MHk</t>
-  </si>
-  <si>
     <t>Test Student 5</t>
   </si>
   <si>
-    <t>student5@library</t>
-  </si>
-  <si>
-    <t>uElqihO2</t>
-  </si>
-  <si>
     <t>Test Student 6</t>
-  </si>
-  <si>
-    <t>student6@library</t>
-  </si>
-  <si>
-    <t>P2OEdBiW</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>teststudent</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,6 +125,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -464,115 +475,116 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>